--- a/src/test/resources/testCandidatosInsercion.xlsx
+++ b/src/test/resources/testCandidatosInsercion.xlsx
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Candidato</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Partido</t>
   </si>
@@ -62,6 +59,24 @@
   </si>
   <si>
     <t>777777777G</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>De Dios</t>
+  </si>
+  <si>
+    <t>Estevez</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>Garcia</t>
   </si>
 </sst>
 </file>
@@ -400,68 +415,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
